--- a/medicine/Psychotrope/Acolon/Acolon.xlsx
+++ b/medicine/Psychotrope/Acolon/Acolon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L' acolon  est un cépage de cuve de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de l'institut Staatliche Lehr- und Versuchsanstalt für Wein- und Obstbau Weinsberg à Weinsberg. L'origine génétique est vérifiée et c'est un croisement des cépages Blaufränkisch x Dornfelder réalisé en 1971. Le cépage est autorisé dans de nombreux Länder en Allemagne.
 En Allemagne, la culture de l'acolon est en progression passant de 47 ha en 2000 à 78 ha en 2001 et 428 ha en 2006.
@@ -546,7 +560,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque hâtive : de 5 à 7 jours avant le chasselas.
 </t>
@@ -577,7 +593,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont moyennes et les baies sont de taille moyenne. La grappe est lâche. Le cépage est vigoureux et fertile. Il est assez résistant à la pourriture grise ce qui permet de le laisser murir dans les climats septentrionaux.
 Le cépage Acolon, à raisins noirs donne un vin distingué, à robe rouge foncé, aux arômes 
@@ -614,7 +632,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acolon est connu sous le sigle de We 71-816-102.
 </t>
